--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5275" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5275" uniqueCount="607">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,6 +466,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Organization.meta.security</t>
   </si>
   <si>
@@ -631,7 +634,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -653,7 +656,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -756,7 +759,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -784,7 +787,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1401,7 +1404,7 @@
     <t>organizationType</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Organization.type:organizationType.id</t>
@@ -1482,7 +1485,7 @@
     <t>Secteurs d'activité des établissements avec la même activité dans le RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS|20250828120000</t>
   </si>
   <si>
     <t>Organization.type:secteurActiviteRASS.id</t>
@@ -1527,7 +1530,7 @@
     <t>Catégorie d'établissement du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS|20241025120000</t>
   </si>
   <si>
     <t>Organization.type:categorieEtablissementRASS.id</t>
@@ -1606,7 +1609,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1642,7 +1645,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1678,7 +1681,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -2240,7 +2243,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,7 +2258,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="107.44921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3463,7 +3466,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -3531,10 +3534,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3557,16 +3560,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3592,13 +3595,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3616,7 +3619,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3645,10 +3648,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3671,16 +3674,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3706,13 +3709,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3730,7 +3733,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3759,10 +3762,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3788,13 +3791,13 @@
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3844,7 +3847,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3873,10 +3876,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3899,16 +3902,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3934,13 +3937,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3958,7 +3961,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3987,14 +3990,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4013,16 +4016,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4072,7 +4075,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4090,7 +4093,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -4101,14 +4104,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4127,16 +4130,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4186,7 +4189,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4204,7 +4207,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -4215,10 +4218,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4244,10 +4247,10 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4296,7 +4299,7 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4325,13 +4328,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -4353,13 +4356,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4410,7 +4413,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4419,7 +4422,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -4439,13 +4442,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -4467,13 +4470,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4524,7 +4527,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4533,7 +4536,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -4553,13 +4556,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -4581,13 +4584,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4638,7 +4641,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4667,10 +4670,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4696,16 +4699,16 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4754,7 +4757,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4772,7 +4775,7 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4783,10 +4786,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4809,17 +4812,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4856,10 +4859,10 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
@@ -4868,7 +4871,7 @@
         <v>115</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4877,30 +4880,30 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5009,10 +5012,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5123,10 +5126,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5149,19 +5152,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5186,11 +5189,11 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5208,7 +5211,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5223,10 +5226,10 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5237,10 +5240,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5263,19 +5266,19 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5300,11 +5303,11 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5322,7 +5325,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5337,10 +5340,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5351,10 +5354,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5380,16 +5383,16 @@
         <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5402,7 +5405,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -5438,7 +5441,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5453,13 +5456,13 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5467,10 +5470,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5496,13 +5499,13 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5516,7 +5519,7 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>78</v>
@@ -5552,7 +5555,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5567,13 +5570,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5581,10 +5584,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5607,13 +5610,13 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5664,7 +5667,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5679,13 +5682,13 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5693,10 +5696,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5719,16 +5722,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5778,7 +5781,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5793,13 +5796,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5807,13 +5810,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>78</v>
@@ -5835,17 +5838,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5894,7 +5897,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5903,30 +5906,30 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6035,10 +6038,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6149,10 +6152,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6175,19 +6178,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6197,7 +6200,7 @@
         <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>78</v>
@@ -6212,11 +6215,11 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6234,7 +6237,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6249,10 +6252,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -6263,10 +6266,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6289,19 +6292,19 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6311,7 +6314,7 @@
         <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>78</v>
@@ -6326,11 +6329,11 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6348,7 +6351,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6363,10 +6366,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6377,10 +6380,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6406,16 +6409,16 @@
         <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6425,10 +6428,10 @@
         <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -6464,7 +6467,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6479,13 +6482,13 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6493,10 +6496,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6522,13 +6525,13 @@
         <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6542,7 +6545,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6578,7 +6581,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6593,13 +6596,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6607,10 +6610,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6633,13 +6636,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6690,7 +6693,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6705,13 +6708,13 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6719,10 +6722,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6745,16 +6748,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6804,7 +6807,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6819,13 +6822,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6833,13 +6836,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>78</v>
@@ -6861,17 +6864,17 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6920,7 +6923,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6929,30 +6932,30 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7061,10 +7064,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7175,10 +7178,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7201,19 +7204,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7238,11 +7241,11 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7260,7 +7263,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7275,10 +7278,10 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -7289,10 +7292,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7315,19 +7318,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7337,7 +7340,7 @@
         <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>78</v>
@@ -7352,11 +7355,11 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7374,7 +7377,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7389,10 +7392,10 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7403,10 +7406,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7432,16 +7435,16 @@
         <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7451,10 +7454,10 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7490,7 +7493,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7505,13 +7508,13 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7519,10 +7522,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7548,13 +7551,13 @@
         <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7568,7 +7571,7 @@
         <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>78</v>
@@ -7604,7 +7607,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7619,13 +7622,13 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7633,10 +7636,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7659,13 +7662,13 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7716,7 +7719,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7731,13 +7734,13 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7745,10 +7748,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7771,16 +7774,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7830,7 +7833,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7845,13 +7848,13 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7859,13 +7862,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
@@ -7887,17 +7890,17 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7946,7 +7949,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7955,30 +7958,30 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8087,10 +8090,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8201,10 +8204,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8227,19 +8230,19 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8264,11 +8267,11 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8286,7 +8289,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8301,10 +8304,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8315,10 +8318,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8341,19 +8344,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8363,7 +8366,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8378,11 +8381,11 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8400,7 +8403,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8415,10 +8418,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8429,10 +8432,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8458,16 +8461,16 @@
         <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8477,10 +8480,10 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>78</v>
@@ -8516,7 +8519,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8531,13 +8534,13 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8545,10 +8548,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8574,13 +8577,13 @@
         <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8594,7 +8597,7 @@
         <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>78</v>
@@ -8630,7 +8633,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8645,13 +8648,13 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8659,10 +8662,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8685,13 +8688,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8742,7 +8745,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8757,13 +8760,13 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8771,10 +8774,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8797,16 +8800,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8856,7 +8859,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8871,13 +8874,13 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8885,13 +8888,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -8913,17 +8916,17 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8972,7 +8975,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8981,30 +8984,30 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9113,10 +9116,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9227,10 +9230,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9253,19 +9256,19 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9290,11 +9293,11 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9312,7 +9315,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9327,10 +9330,10 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9341,10 +9344,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9367,19 +9370,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9404,11 +9407,11 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9426,7 +9429,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9441,10 +9444,10 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9455,10 +9458,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9567,10 +9570,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9681,10 +9684,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9707,19 +9710,19 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9768,7 +9771,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9783,10 +9786,10 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9797,10 +9800,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9909,10 +9912,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10023,10 +10026,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10052,16 +10055,16 @@
         <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10071,7 +10074,7 @@
         <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>78</v>
@@ -10110,7 +10113,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10125,10 +10128,10 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -10139,10 +10142,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10168,13 +10171,13 @@
         <v>102</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10224,7 +10227,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10239,10 +10242,10 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10253,10 +10256,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10279,17 +10282,17 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10338,7 +10341,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10353,10 +10356,10 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10367,10 +10370,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10396,14 +10399,14 @@
         <v>102</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10452,7 +10455,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10467,10 +10470,10 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10481,10 +10484,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10507,19 +10510,19 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10568,7 +10571,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10583,10 +10586,10 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10597,10 +10600,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10626,16 +10629,16 @@
         <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10684,7 +10687,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10699,10 +10702,10 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10713,10 +10716,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10742,16 +10745,16 @@
         <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10761,10 +10764,10 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>78</v>
@@ -10800,7 +10803,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10815,13 +10818,13 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10829,10 +10832,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10858,13 +10861,13 @@
         <v>102</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10878,7 +10881,7 @@
         <v>78</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>78</v>
@@ -10914,7 +10917,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10929,13 +10932,13 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10943,10 +10946,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10969,13 +10972,13 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11026,7 +11029,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11041,13 +11044,13 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11055,10 +11058,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11081,16 +11084,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11140,7 +11143,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11155,13 +11158,13 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11169,13 +11172,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>78</v>
@@ -11197,17 +11200,17 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11256,7 +11259,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11265,30 +11268,30 @@
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11397,10 +11400,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11511,10 +11514,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11537,19 +11540,19 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11574,11 +11577,11 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11596,7 +11599,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11611,10 +11614,10 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11625,10 +11628,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11651,19 +11654,19 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11673,7 +11676,7 @@
         <v>78</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>78</v>
@@ -11688,11 +11691,11 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11710,7 +11713,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11725,10 +11728,10 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11739,10 +11742,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11768,16 +11771,16 @@
         <v>130</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11787,10 +11790,10 @@
         <v>78</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>78</v>
@@ -11826,7 +11829,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11841,13 +11844,13 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11855,10 +11858,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11884,13 +11887,13 @@
         <v>102</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11904,7 +11907,7 @@
         <v>78</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>78</v>
@@ -11940,7 +11943,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11955,13 +11958,13 @@
         <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11969,10 +11972,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11995,13 +11998,13 @@
         <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12052,7 +12055,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12067,13 +12070,13 @@
         <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12081,10 +12084,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12107,16 +12110,16 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12166,7 +12169,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12181,13 +12184,13 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12195,10 +12198,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12221,70 +12224,70 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q88" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12299,24 +12302,24 @@
         <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12339,19 +12342,19 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12376,13 +12379,13 @@
         <v>78</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>78</v>
@@ -12398,7 +12401,7 @@
         <v>115</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12413,27 +12416,27 @@
         <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>78</v>
@@ -12455,19 +12458,19 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -12492,11 +12495,11 @@
         <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>78</v>
@@ -12514,7 +12517,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12529,24 +12532,24 @@
         <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12655,10 +12658,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12769,10 +12772,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12795,19 +12798,19 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -12856,7 +12859,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12871,10 +12874,10 @@
         <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>
@@ -12885,10 +12888,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12997,10 +13000,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13111,10 +13114,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13140,16 +13143,16 @@
         <v>130</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13198,7 +13201,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13213,10 +13216,10 @@
         <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13227,10 +13230,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13256,13 +13259,13 @@
         <v>102</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13312,7 +13315,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13327,10 +13330,10 @@
         <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
@@ -13341,10 +13344,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13367,17 +13370,17 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13426,7 +13429,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13441,10 +13444,10 @@
         <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>78</v>
@@ -13455,10 +13458,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13484,14 +13487,14 @@
         <v>102</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13540,7 +13543,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13555,10 +13558,10 @@
         <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>78</v>
@@ -13569,10 +13572,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13595,19 +13598,19 @@
         <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13656,7 +13659,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -13671,10 +13674,10 @@
         <v>100</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
@@ -13685,10 +13688,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13714,16 +13717,16 @@
         <v>102</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>78</v>
@@ -13772,7 +13775,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -13787,10 +13790,10 @@
         <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>78</v>
@@ -13801,13 +13804,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>78</v>
@@ -13829,19 +13832,19 @@
         <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -13866,11 +13869,11 @@
         <v>78</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y102" s="2"/>
       <c r="Z102" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>78</v>
@@ -13888,7 +13891,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -13903,24 +13906,24 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14029,10 +14032,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14143,10 +14146,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14169,19 +14172,19 @@
         <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -14230,7 +14233,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14245,10 +14248,10 @@
         <v>100</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>78</v>
@@ -14259,10 +14262,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14371,10 +14374,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14485,10 +14488,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14514,16 +14517,16 @@
         <v>130</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -14572,7 +14575,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14587,10 +14590,10 @@
         <v>100</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>78</v>
@@ -14601,10 +14604,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14630,13 +14633,13 @@
         <v>102</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -14686,7 +14689,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14701,10 +14704,10 @@
         <v>100</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>78</v>
@@ -14715,10 +14718,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14741,17 +14744,17 @@
         <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -14800,7 +14803,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -14815,10 +14818,10 @@
         <v>100</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>78</v>
@@ -14829,10 +14832,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14858,14 +14861,14 @@
         <v>102</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -14914,7 +14917,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -14929,10 +14932,10 @@
         <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>78</v>
@@ -14943,10 +14946,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14969,19 +14972,19 @@
         <v>89</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
@@ -15030,7 +15033,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15045,10 +15048,10 @@
         <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>78</v>
@@ -15059,10 +15062,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15088,16 +15091,16 @@
         <v>102</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -15146,7 +15149,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15161,10 +15164,10 @@
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>78</v>
@@ -15175,13 +15178,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>78</v>
@@ -15203,19 +15206,19 @@
         <v>89</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15240,11 +15243,11 @@
         <v>78</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y114" s="2"/>
       <c r="Z114" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>78</v>
@@ -15262,7 +15265,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15277,24 +15280,24 @@
         <v>100</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15403,10 +15406,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15517,10 +15520,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15543,19 +15546,19 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -15604,7 +15607,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -15619,10 +15622,10 @@
         <v>100</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>78</v>
@@ -15633,10 +15636,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15745,10 +15748,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15859,10 +15862,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15888,16 +15891,16 @@
         <v>130</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
@@ -15946,7 +15949,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -15961,10 +15964,10 @@
         <v>100</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>78</v>
@@ -15975,10 +15978,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16004,13 +16007,13 @@
         <v>102</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16060,7 +16063,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16075,10 +16078,10 @@
         <v>100</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>78</v>
@@ -16089,10 +16092,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16115,17 +16118,17 @@
         <v>89</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>78</v>
@@ -16174,7 +16177,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16189,10 +16192,10 @@
         <v>100</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>78</v>
@@ -16203,10 +16206,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16232,14 +16235,14 @@
         <v>102</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -16288,7 +16291,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16303,10 +16306,10 @@
         <v>100</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>78</v>
@@ -16317,10 +16320,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16343,19 +16346,19 @@
         <v>89</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>78</v>
@@ -16404,7 +16407,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16419,10 +16422,10 @@
         <v>100</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>78</v>
@@ -16433,10 +16436,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16462,16 +16465,16 @@
         <v>102</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>78</v>
@@ -16520,7 +16523,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -16535,10 +16538,10 @@
         <v>100</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>78</v>
@@ -16549,10 +16552,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16578,16 +16581,16 @@
         <v>102</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -16636,7 +16639,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -16645,19 +16648,19 @@
         <v>88</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -16665,10 +16668,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16694,16 +16697,16 @@
         <v>102</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>78</v>
@@ -16752,7 +16755,7 @@
         <v>78</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -16770,7 +16773,7 @@
         <v>78</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>78</v>
@@ -16781,10 +16784,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16807,19 +16810,19 @@
         <v>78</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>78</v>
@@ -16868,7 +16871,7 @@
         <v>78</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -16877,19 +16880,19 @@
         <v>80</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>78</v>
@@ -16897,10 +16900,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16923,19 +16926,19 @@
         <v>78</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>78</v>
@@ -16984,7 +16987,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -16993,19 +16996,19 @@
         <v>80</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17013,10 +17016,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17039,17 +17042,17 @@
         <v>89</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>78</v>
@@ -17098,7 +17101,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17113,10 +17116,10 @@
         <v>100</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>106</v>
@@ -17127,10 +17130,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17239,10 +17242,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17353,10 +17356,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17382,13 +17385,13 @@
         <v>102</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -17438,7 +17441,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -17447,7 +17450,7 @@
         <v>88</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>100</v>
@@ -17456,7 +17459,7 @@
         <v>78</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>78</v>
@@ -17467,10 +17470,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17496,13 +17499,13 @@
         <v>130</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -17528,11 +17531,11 @@
         <v>78</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y134" s="2"/>
       <c r="Z134" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>78</v>
@@ -17550,7 +17553,7 @@
         <v>78</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -17568,7 +17571,7 @@
         <v>78</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>78</v>
@@ -17579,10 +17582,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17605,16 +17608,16 @@
         <v>89</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -17664,7 +17667,7 @@
         <v>78</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -17682,7 +17685,7 @@
         <v>78</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>78</v>
@@ -17693,10 +17696,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17722,13 +17725,13 @@
         <v>102</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -17778,7 +17781,7 @@
         <v>78</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -17796,7 +17799,7 @@
         <v>78</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>78</v>
@@ -17807,10 +17810,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17833,19 +17836,19 @@
         <v>78</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>78</v>
@@ -17894,7 +17897,7 @@
         <v>78</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -17912,7 +17915,7 @@
         <v>78</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>78</v>
@@ -17923,10 +17926,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18035,10 +18038,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18149,14 +18152,14 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -18178,16 +18181,16 @@
         <v>109</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>78</v>
@@ -18236,7 +18239,7 @@
         <v>78</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -18254,7 +18257,7 @@
         <v>78</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>78</v>
@@ -18265,10 +18268,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18291,17 +18294,17 @@
         <v>78</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>78</v>
@@ -18326,13 +18329,13 @@
         <v>78</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>78</v>
@@ -18350,7 +18353,7 @@
         <v>78</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -18368,7 +18371,7 @@
         <v>78</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>78</v>
@@ -18379,10 +18382,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18405,17 +18408,17 @@
         <v>78</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>78</v>
@@ -18464,7 +18467,7 @@
         <v>78</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -18479,10 +18482,10 @@
         <v>100</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>78</v>
@@ -18493,10 +18496,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18519,17 +18522,17 @@
         <v>78</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>78</v>
@@ -18578,7 +18581,7 @@
         <v>78</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -18593,10 +18596,10 @@
         <v>100</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>78</v>
@@ -18607,10 +18610,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18633,17 +18636,17 @@
         <v>78</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>78</v>
@@ -18692,7 +18695,7 @@
         <v>78</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -18707,10 +18710,10 @@
         <v>100</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>78</v>
@@ -18721,10 +18724,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18747,17 +18750,17 @@
         <v>78</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>78</v>
@@ -18806,7 +18809,7 @@
         <v>78</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
